--- a/prueba notas - copia.xlsx
+++ b/prueba notas - copia.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Alberto Francisco medina malcia</t>
+    <t>Jeysson Antonio Medina Mate</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
